--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
@@ -70,6 +70,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313345</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="466725"/>
+          <a:ext cx="7838095" cy="3923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +405,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -370,6 +413,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
@@ -104,6 +104,728 @@
         <a:xfrm>
           <a:off x="704850" y="466725"/>
           <a:ext cx="7838095" cy="3923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>369769</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="4600575"/>
+          <a:ext cx="13647619" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>684640</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="7372350"/>
+          <a:ext cx="9276190" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523370</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10887075" y="7658100"/>
+          <a:ext cx="4038095" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>284674</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="11268075"/>
+          <a:ext cx="8609524" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>218251</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="14782800"/>
+          <a:ext cx="6590476" cy="4476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237392</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628649" y="15430500"/>
+          <a:ext cx="5095143" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>274253</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>28062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="19411950"/>
+          <a:ext cx="15771428" cy="4104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313806</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>18886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="23736300"/>
+          <a:ext cx="4152381" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256189</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>170905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="26670000"/>
+          <a:ext cx="7885714" cy="4361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>255895</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>46979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="26079450"/>
+          <a:ext cx="10238095" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370127</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>66081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="31832550"/>
+          <a:ext cx="10780952" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>466033</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>113915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12763500" y="32356425"/>
+          <a:ext cx="5533333" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541777</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>132845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="37071300"/>
+          <a:ext cx="9180952" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123258</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>75795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="37299900"/>
+          <a:ext cx="4533333" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>475813</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>56701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15497175" y="37271325"/>
+          <a:ext cx="3495238" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>285295</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>37744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19278600" y="37652325"/>
+          <a:ext cx="3638095" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208648</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>66245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="41719500"/>
+          <a:ext cx="7219048" cy="3438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342345</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>104443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="46310550"/>
+          <a:ext cx="4438095" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>226666</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>113637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019800" y="45729525"/>
+          <a:ext cx="15466666" cy="5304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -404,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="W256" sqref="W256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
@@ -826,6 +826,158 @@
         <a:xfrm>
           <a:off x="6019800" y="45729525"/>
           <a:ext cx="15466666" cy="5304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36727</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>104573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="51977925"/>
+          <a:ext cx="10980952" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>645797</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>132862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="53835300"/>
+          <a:ext cx="15219047" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>150499</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>85190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="57873900"/>
+          <a:ext cx="15209524" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>370611</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>104052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="62560200"/>
+          <a:ext cx="6914286" cy="5780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1126,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="W256" sqref="W256"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="Y370" sqref="Y370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
@@ -1279,7 +1279,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="Y370" sqref="Y370"/>
+      <selection activeCell="AC365" sqref="AC365:AC366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_9 18.数据在内存中的存储(1).xlsx
@@ -13,6 +13,19 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>举例子的时候要举那些容易转换为二进制的例子——0.5、5.5、9.0之类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不然像3.14这种，很难转换的，也不能精确保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,6 +991,310 @@
         <a:xfrm>
           <a:off x="3743325" y="62560200"/>
           <a:ext cx="6914286" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>43925</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="68627625"/>
+          <a:ext cx="16245950" cy="4076699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608319</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>161376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="77209650"/>
+          <a:ext cx="10247619" cy="4390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>256246</xdr:colOff>
+      <xdr:row>468</xdr:row>
+      <xdr:rowOff>66418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12030075" y="78247875"/>
+          <a:ext cx="7428571" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113368</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>161502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="73418700"/>
+          <a:ext cx="7457143" cy="3380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>399125</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>161690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="82296000"/>
+          <a:ext cx="7400000" cy="1876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198357</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>28219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="84448650"/>
+          <a:ext cx="13342857" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590061</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>47545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="88049100"/>
+          <a:ext cx="3914286" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>532214</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>161287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="89011125"/>
+          <a:ext cx="9485714" cy="5104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,14 +1593,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="V497:V499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="AC365" sqref="AC365:AC366"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="AE504" sqref="AE504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="497" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V497" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V499" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
